--- a/Экзамен/Экзамен2.xlsx
+++ b/Экзамен/Экзамен2.xlsx
@@ -400,7 +400,7 @@
   <dimension ref="C3:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,6 +485,15 @@
         <v>5</v>
       </c>
       <c r="E8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>7</v>
+      </c>
+      <c r="G8">
+        <v>8</v>
+      </c>
+      <c r="H8">
         <v>4</v>
       </c>
     </row>
